--- a/va_facility_data_2025-02-20/San Bruno VA Clinic - Facility Data.xlsx"; filename*=UTF-8''San%20Bruno%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/San Bruno VA Clinic - Facility Data.xlsx"; filename*=UTF-8''San%20Bruno%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R42c170637ee54e6aafd2fde9fa241585"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R612697c9b6534595908c94fe131bba32"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R45ee2d0b47ca4d3d805c2bebf0de268a"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Re19ea2fc737c4dedaca26ddfc92ce745"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2adcb92e8f89428fbcca7e342d86462d"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8cbf1c2ced9740b2a6c7a2b0df9b3538"/>
   </x:sheets>
 </x:workbook>
 </file>
